--- a/최종산출물/PSP_Sheet_통합.xlsx
+++ b/최종산출물/PSP_Sheet_통합.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive\바탕 화면\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2F10BF-8349-4345-8937-B20C03370B40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박진영" sheetId="2" r:id="rId1"/>
@@ -19,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -215,12 +221,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -411,12 +417,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -588,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -607,12 +613,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -725,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -893,7 +899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -912,12 +918,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -931,7 +937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1108,12 +1114,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="278">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -6050,17 +6056,353 @@
       <t>통합</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종결과물 시연 영상 촬영, 최종결과물 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기존 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능 재논의 &amp; 새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target Application Review를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 재논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 리스트업</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Use Case Diagram 작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Use Case Diagram, Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 교수님 피드백 사항 점검 및 수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선정, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핵심로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 관련 구체화(시간표 구성 요건, 피드백로직)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data, Use Case Spec, DB 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등 각자 작업물 Review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 논의</t>
+    </r>
+  </si>
+  <si>
+    <t>개발 환경 세팅</t>
+  </si>
+  <si>
+    <t>최종 결과물을 위한 업무 분배</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업무 진행(각종 정보 입력 및 저장 구현, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">HTML/CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업, 추천 로직 구현, 문서 작성)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Case를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 Data Set 논의 및 Data 생성</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6197,6 +6539,11 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6249,7 +6596,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -6367,10 +6714,47 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6743,31 +7127,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" style="28" customWidth="1"/>
     <col min="2" max="3" width="7" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="62.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.5703125" style="28"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="62.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.54296875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6779,10 +7163,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -6792,8 +7176,8 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -6894,234 +7278,234 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="61">
         <v>43726</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="62">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="62">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0</v>
+      </c>
+      <c r="E10" s="63">
+        <v>75</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B11" s="29">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C11" s="29">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="31">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
         <v>60</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F11" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="42">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="61">
+        <v>43727</v>
+      </c>
+      <c r="B12" s="62">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="62">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>75</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="42">
         <v>43729</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B13" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>0.75</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
         <v>120</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="14">
-        <v>43734</v>
-      </c>
-      <c r="B12" s="29">
-        <v>0</v>
-      </c>
-      <c r="C12" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D12" s="31">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32">
+    <row r="14" spans="1:6" ht="13">
+      <c r="A14" s="61">
+        <v>43732</v>
+      </c>
+      <c r="B14" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="62">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="65">
         <v>60</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="14">
-        <v>43734</v>
-      </c>
-      <c r="B13" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>60</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14">
-        <v>43736</v>
-      </c>
-      <c r="B14" s="29">
-        <v>0.625</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>120</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>102</v>
+      <c r="E14" s="68">
+        <v>180</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="14">
-        <v>43737</v>
-      </c>
-      <c r="B15" s="29">
-        <v>0</v>
-      </c>
-      <c r="C15" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>120</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>101</v>
+      <c r="A15" s="61">
+        <v>43733</v>
+      </c>
+      <c r="B15" s="62">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" s="62">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D15" s="65">
+        <v>40</v>
+      </c>
+      <c r="E15" s="66">
+        <v>200</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="14">
-        <v>43738</v>
+        <v>43734</v>
       </c>
       <c r="B16" s="29">
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
       <c r="C16" s="29">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="31">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E16" s="32">
-        <v>340</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="14">
-        <v>43742</v>
+        <v>43734</v>
       </c>
       <c r="B17" s="29">
-        <v>0.91666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="29">
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D17" s="31">
         <v>0</v>
       </c>
       <c r="E17" s="32">
+        <v>60</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="61">
+        <v>43734</v>
+      </c>
+      <c r="B18" s="62">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="62">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D18" s="65">
+        <v>0</v>
+      </c>
+      <c r="E18" s="66">
+        <v>75</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="33">
+        <v>43735</v>
+      </c>
+      <c r="B19" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="69">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="70">
+        <v>0</v>
+      </c>
+      <c r="E19" s="71">
         <v>120</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="14">
-        <v>43744</v>
-      </c>
-      <c r="B18" s="29">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C18" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D18" s="31">
-        <v>90</v>
-      </c>
-      <c r="E18" s="32">
-        <v>270</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14">
-        <v>43746</v>
-      </c>
-      <c r="B19" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="29">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <v>60</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>98</v>
+      <c r="F19" s="72" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="14">
-        <v>43753</v>
+        <v>43736</v>
       </c>
       <c r="B20" s="29">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C20" s="29">
-        <v>0.95833333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="31">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E20" s="32">
-        <v>210</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>97</v>
+        <v>120</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="14">
-        <v>43754</v>
+        <v>43737</v>
       </c>
       <c r="B21" s="29">
-        <v>0.79166666666666663</v>
+        <v>0</v>
       </c>
       <c r="C21" s="29">
-        <v>0.875</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D21" s="31">
         <v>0</v>
@@ -7129,39 +7513,39 @@
       <c r="E21" s="32">
         <v>120</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>96</v>
+      <c r="F21" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="14">
-        <v>43758</v>
+        <v>43738</v>
       </c>
       <c r="B22" s="29">
-        <v>0.70833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C22" s="29">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D22" s="31">
+        <v>90</v>
+      </c>
+      <c r="E22" s="32">
+        <v>340</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="33">
+        <v>43739</v>
+      </c>
+      <c r="B23" s="29">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D22" s="31">
-        <v>0</v>
-      </c>
-      <c r="E22" s="32">
-        <v>120</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="14">
-        <v>43761</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0.91666666666666663</v>
-      </c>
       <c r="C23" s="29">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D23" s="31">
         <v>0</v>
@@ -7169,159 +7553,159 @@
       <c r="E23" s="32">
         <v>120</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>95</v>
+      <c r="F23" s="30" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="14">
-        <v>43765</v>
+        <v>43742</v>
       </c>
       <c r="B24" s="29">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C24" s="29">
-        <v>0.95833333333333337</v>
+        <v>0</v>
       </c>
       <c r="D24" s="31">
         <v>0</v>
       </c>
       <c r="E24" s="32">
+        <v>120</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="33">
+        <v>43743</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" s="32">
+        <v>150</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13">
+      <c r="A26" s="14">
+        <v>43744</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C26" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D26" s="31">
+        <v>90</v>
+      </c>
+      <c r="E26" s="32">
+        <v>270</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="A27" s="33">
+        <v>43745</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
         <v>180</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14">
-        <v>43766</v>
-      </c>
-      <c r="B25" s="29">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C25" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D25" s="31">
-        <v>60</v>
-      </c>
-      <c r="E25" s="32">
-        <v>300</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14">
-        <v>43767</v>
-      </c>
-      <c r="B26" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C26" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="31">
-        <v>30</v>
-      </c>
-      <c r="E26" s="32">
-        <v>210</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="A27" s="14">
-        <v>43769</v>
-      </c>
-      <c r="B27" s="29">
-        <v>0</v>
-      </c>
-      <c r="C27" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D27" s="31">
-        <v>30</v>
-      </c>
-      <c r="E27" s="32">
-        <v>90</v>
-      </c>
       <c r="F27" s="30" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="14">
-        <v>43770</v>
+        <v>43746</v>
       </c>
       <c r="B28" s="29">
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="29">
-        <v>1</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="E28" s="32">
         <v>60</v>
       </c>
-      <c r="E28" s="32">
-        <v>180</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>90</v>
+      <c r="F28" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
-      <c r="A29" s="14">
-        <v>43771</v>
+      <c r="A29" s="33">
+        <v>43751</v>
       </c>
       <c r="B29" s="29">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C29" s="29">
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D29" s="31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E29" s="32">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="14">
-        <v>43770</v>
+        <v>43753</v>
       </c>
       <c r="B30" s="29">
-        <v>0.66666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C30" s="29">
-        <v>0.72916666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D30" s="31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E30" s="32">
-        <v>90</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>89</v>
+        <v>210</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="14">
-        <v>43775</v>
+        <v>43754</v>
       </c>
       <c r="B31" s="29">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C31" s="29">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="D31" s="31">
         <v>0</v>
@@ -7329,39 +7713,39 @@
       <c r="E31" s="32">
         <v>120</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>88</v>
+      <c r="F31" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="14">
-        <v>43782</v>
+        <v>43758</v>
       </c>
       <c r="B32" s="29">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C32" s="29">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D32" s="31">
+        <v>0</v>
+      </c>
+      <c r="E32" s="32">
         <v>120</v>
       </c>
-      <c r="E32" s="32">
-        <v>360</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>87</v>
+      <c r="F32" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="14">
-        <v>43783</v>
+        <v>43761</v>
       </c>
       <c r="B33" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C33" s="29">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="D33" s="31">
         <v>0</v>
@@ -7369,368 +7753,788 @@
       <c r="E33" s="32">
         <v>120</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>86</v>
+      <c r="F33" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="14">
-        <v>43788</v>
+      <c r="A34" s="33">
+        <v>43762</v>
       </c>
       <c r="B34" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>0.375</v>
       </c>
       <c r="C34" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D34" s="31">
         <v>0</v>
       </c>
       <c r="E34" s="32">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>85</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="14">
-        <v>43788</v>
+        <v>43765</v>
       </c>
       <c r="B35" s="29">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C35" s="29">
-        <v>0.83333333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D35" s="31">
         <v>0</v>
       </c>
       <c r="E35" s="32">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="14">
-        <v>43789</v>
+        <v>43766</v>
       </c>
       <c r="B36" s="29">
         <v>0.83333333333333337</v>
       </c>
       <c r="C36" s="29">
-        <v>0.9375</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D36" s="31">
-        <v>30</v>
-      </c>
-      <c r="E36" s="31">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="32">
+        <v>300</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="14">
-        <v>43795</v>
+        <v>43767</v>
       </c>
       <c r="B37" s="29">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C37" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="31">
         <v>30</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="32">
         <v>210</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="14">
-        <v>43796</v>
+        <v>43769</v>
       </c>
       <c r="B38" s="29">
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
       <c r="C38" s="29">
-        <v>0.85416666666666663</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D38" s="31">
         <v>30</v>
       </c>
-      <c r="E38" s="31">
-        <v>180</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.5">
+      <c r="E38" s="32">
+        <v>90</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13">
       <c r="A39" s="14">
-        <v>43797</v>
+        <v>43770</v>
       </c>
       <c r="B39" s="29">
         <v>0.83333333333333337</v>
       </c>
       <c r="C39" s="29">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D39" s="31">
+        <v>60</v>
+      </c>
+      <c r="E39" s="32">
+        <v>180</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="13.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13">
       <c r="A40" s="14">
-        <v>43798</v>
-      </c>
-      <c r="B40" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="C40" s="37">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D40" s="8">
+        <v>43771</v>
+      </c>
+      <c r="B40" s="29">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
         <v>90</v>
       </c>
-      <c r="E40" s="8">
-        <v>330</v>
-      </c>
       <c r="F40" s="30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="14">
+        <v>43770</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0</v>
+      </c>
+      <c r="E41" s="32">
+        <v>90</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13">
+      <c r="A42" s="14">
+        <v>43775</v>
+      </c>
+      <c r="B42" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D42" s="31">
+        <v>0</v>
+      </c>
+      <c r="E42" s="32">
+        <v>120</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13">
+      <c r="A43" s="33">
+        <v>43781</v>
+      </c>
+      <c r="B43" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C43" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D43" s="31">
+        <v>30</v>
+      </c>
+      <c r="E43" s="32">
+        <v>150</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16">
+      <c r="A44" s="14">
+        <v>43782</v>
+      </c>
+      <c r="B44" s="29">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C44" s="29">
+        <v>0</v>
+      </c>
+      <c r="D44" s="31">
+        <v>120</v>
+      </c>
+      <c r="E44" s="32">
+        <v>360</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13">
+      <c r="A45" s="14">
+        <v>43783</v>
+      </c>
+      <c r="B45" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="D45" s="31">
+        <v>0</v>
+      </c>
+      <c r="E45" s="32">
+        <v>120</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13">
+      <c r="A46" s="14">
+        <v>43788</v>
+      </c>
+      <c r="B46" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D46" s="31">
+        <v>0</v>
+      </c>
+      <c r="E46" s="32">
+        <v>60</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13">
+      <c r="A47" s="33">
+        <v>43788</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D47" s="31">
+        <v>0</v>
+      </c>
+      <c r="E47" s="32">
+        <v>75</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13">
+      <c r="A48" s="14">
+        <v>43788</v>
+      </c>
+      <c r="B48" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D48" s="31">
+        <v>0</v>
+      </c>
+      <c r="E48" s="32">
+        <v>120</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16">
+      <c r="A49" s="14">
+        <v>43789</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0.9375</v>
+      </c>
+      <c r="D49" s="31">
+        <v>30</v>
+      </c>
+      <c r="E49" s="31">
+        <v>120</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16">
+      <c r="A50" s="33">
+        <v>43790</v>
+      </c>
+      <c r="B50" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="C50" s="29">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D50" s="31">
+        <v>0</v>
+      </c>
+      <c r="E50" s="32">
+        <v>75</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16">
+      <c r="A51" s="14">
+        <v>43795</v>
+      </c>
+      <c r="B51" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C51" s="29">
+        <v>1</v>
+      </c>
+      <c r="D51" s="31">
+        <v>30</v>
+      </c>
+      <c r="E51" s="31">
+        <v>210</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16">
+      <c r="A52" s="14">
+        <v>43796</v>
+      </c>
+      <c r="B52" s="29">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D52" s="31">
+        <v>30</v>
+      </c>
+      <c r="E52" s="31">
+        <v>180</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16">
+      <c r="A53" s="14">
+        <v>43797</v>
+      </c>
+      <c r="B53" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C53" s="29">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>120</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16">
+      <c r="A54" s="14">
+        <v>43798</v>
+      </c>
+      <c r="B54" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="C54" s="37">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D54" s="8">
+        <v>90</v>
+      </c>
+      <c r="E54" s="8">
+        <v>330</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13">
+      <c r="A55" s="14">
         <v>43799</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B55" s="37">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C55" s="37">
         <v>0.5</v>
       </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
         <v>120</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F55" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14">
+    <row r="56" spans="1:6" ht="13">
+      <c r="A56" s="14">
         <v>43799</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B56" s="37">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C56" s="37">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D56" s="8">
         <v>120</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E56" s="8">
         <v>420</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F56" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="14">
+    <row r="57" spans="1:6" ht="16">
+      <c r="A57" s="14">
+        <v>43801</v>
+      </c>
+      <c r="B57" s="29">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C57" s="29">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D57" s="31">
+        <v>0</v>
+      </c>
+      <c r="E57" s="32">
+        <v>240</v>
+      </c>
+      <c r="F57" s="73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13">
+      <c r="A58" s="14">
         <v>43802</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B58" s="37">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C58" s="37">
         <v>0.75</v>
       </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8">
         <v>120</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F58" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="14">
+    <row r="59" spans="1:6" ht="13">
+      <c r="A59" s="14">
         <v>43802</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B59" s="37">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C59" s="37">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8">
         <v>180</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F59" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="14">
+    <row r="60" spans="1:6" ht="13">
+      <c r="A60" s="14">
         <v>43803</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B60" s="37">
         <v>0.625</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C60" s="37">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8">
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8">
         <v>300</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F60" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="14">
+    <row r="61" spans="1:6" ht="13">
+      <c r="A61" s="14">
         <v>43803</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B61" s="37">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C61" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8">
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="8">
         <v>210</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F61" s="38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5">
-      <c r="A47" s="14">
+    <row r="62" spans="1:6" ht="13">
+      <c r="A62" s="14">
         <v>43804</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B62" s="29">
+        <v>0.5625</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D62" s="31">
+        <v>30</v>
+      </c>
+      <c r="E62" s="32">
+        <v>240</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16">
+      <c r="A63" s="14">
+        <v>43804</v>
+      </c>
+      <c r="B63" s="37">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C63" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8">
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
         <v>210</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F63" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5">
-      <c r="A48" s="14">
+    <row r="64" spans="1:6" ht="16">
+      <c r="A64" s="14">
         <v>43805</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B64" s="37">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C64" s="37">
         <v>0.75</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D64" s="8">
         <v>30</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E64" s="8">
         <v>270</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F64" s="36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="14">
+    <row r="65" spans="1:6" ht="13">
+      <c r="A65" s="14">
         <v>43805</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B65" s="37">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C65" s="37">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D65" s="8">
         <v>30</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E65" s="8">
         <v>180</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F65" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="14">
+    <row r="66" spans="1:6" ht="13">
+      <c r="A66" s="14">
         <v>43806</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B66" s="37">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C66" s="37">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
         <v>120</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F66" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5">
-      <c r="A51" s="14">
+    <row r="67" spans="1:6" ht="16">
+      <c r="A67" s="14">
         <v>43806</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B67" s="37">
         <v>0.625</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C67" s="37">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D67" s="8">
         <v>90</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E67" s="8">
         <v>390</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F67" s="36" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16">
+      <c r="A68" s="14">
+        <v>43807</v>
+      </c>
+      <c r="B68" s="37">
+        <v>0</v>
+      </c>
+      <c r="C68" s="37">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D68" s="8">
+        <v>30</v>
+      </c>
+      <c r="E68" s="8">
+        <v>210</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16">
+      <c r="A69" s="14">
+        <v>43807</v>
+      </c>
+      <c r="B69" s="37">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C69" s="37">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D69" s="8">
+        <v>120</v>
+      </c>
+      <c r="E69" s="8">
+        <v>570</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16">
+      <c r="A70" s="14">
+        <v>43808</v>
+      </c>
+      <c r="B70" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C70" s="37">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8">
+        <v>60</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16">
+      <c r="A71" s="14">
+        <v>43808</v>
+      </c>
+      <c r="B71" s="37">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C71" s="37">
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <v>60</v>
+      </c>
+      <c r="E71" s="8">
+        <v>240</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13">
+      <c r="A72" s="14">
+        <v>43809</v>
+      </c>
+      <c r="B72" s="37">
+        <v>0</v>
+      </c>
+      <c r="C72" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D72" s="8">
+        <v>60</v>
+      </c>
+      <c r="E72" s="8">
+        <v>300</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7745,23 +8549,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7773,10 +8577,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -7784,8 +8588,8 @@
       <c r="D3" s="19"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -7985,7 +8789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
@@ -8105,7 +8909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="21" t="s">
         <v>36</v>
       </c>
@@ -8185,7 +8989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="21" t="s">
         <v>44</v>
       </c>
@@ -8225,7 +9029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="13">
       <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
@@ -8245,7 +9049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -8505,7 +9309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="13">
       <c r="A41" s="35" t="s">
         <v>73</v>
       </c>
@@ -8525,7 +9329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="28" customFormat="1">
+    <row r="42" spans="1:6" s="28" customFormat="1" ht="13">
       <c r="A42" s="35" t="s">
         <v>257</v>
       </c>
@@ -8545,7 +9349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="28" customFormat="1">
+    <row r="43" spans="1:6" s="28" customFormat="1" ht="13">
       <c r="A43" s="35" t="s">
         <v>258</v>
       </c>
@@ -8565,7 +9369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="28" customFormat="1">
+    <row r="44" spans="1:6" s="28" customFormat="1" ht="13">
       <c r="A44" s="35" t="s">
         <v>260</v>
       </c>
@@ -8585,7 +9389,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="13">
       <c r="A45" s="35" t="s">
         <v>256</v>
       </c>
@@ -8617,24 +9421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" style="28" customWidth="1"/>
     <col min="2" max="3" width="7" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="69.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="28"/>
+    <col min="4" max="4" width="11.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="69.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -8646,10 +9450,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>159</v>
       </c>
@@ -8663,8 +9467,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="24">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A5" s="54" t="s">
         <v>1</v>
       </c>
@@ -8844,7 +9648,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="46" t="s">
         <v>140</v>
       </c>
@@ -8944,7 +9748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="46" t="s">
         <v>131</v>
       </c>
@@ -9024,7 +9828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="46" t="s">
         <v>124</v>
       </c>
@@ -9064,7 +9868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="46" t="s">
         <v>120</v>
       </c>
@@ -9084,7 +9888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="13">
       <c r="A26" s="46" t="s">
         <v>118</v>
       </c>
@@ -9226,24 +10030,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" style="28" customWidth="1"/>
     <col min="2" max="3" width="7" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="28"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -9255,10 +10059,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>172</v>
       </c>
@@ -9268,8 +10072,8 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -9636,24 +10440,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" style="28" customWidth="1"/>
     <col min="2" max="3" width="7" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="28"/>
+    <col min="4" max="4" width="11.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.54296875" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -9665,10 +10469,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>199</v>
       </c>
@@ -9682,8 +10486,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -9863,7 +10667,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="14" t="s">
         <v>188</v>
       </c>
@@ -9963,7 +10767,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="14" t="s">
         <v>181</v>
       </c>
@@ -10043,7 +10847,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="14" t="s">
         <v>177</v>
       </c>
@@ -10083,7 +10887,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="14" t="s">
         <v>175</v>
       </c>
@@ -10219,24 +11023,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" style="28" customWidth="1"/>
     <col min="2" max="3" width="7" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="8.5703125" style="28"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="8.54296875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -10248,10 +11052,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>255</v>
       </c>
@@ -10261,8 +11065,8 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -10442,7 +11246,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13">
       <c r="A14" s="14" t="s">
         <v>239</v>
       </c>
@@ -10542,7 +11346,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13">
       <c r="A19" s="14" t="s">
         <v>231</v>
       </c>
@@ -10622,7 +11426,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13">
       <c r="A23" s="14" t="s">
         <v>224</v>
       </c>
@@ -10662,7 +11466,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13">
       <c r="A25" s="14" t="s">
         <v>220</v>
       </c>
@@ -10682,7 +11486,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13">
       <c r="A26" s="14" t="s">
         <v>218</v>
       </c>

--- a/최종산출물/PSP_Sheet_통합.xlsx
+++ b/최종산출물/PSP_Sheet_통합.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2F10BF-8349-4345-8937-B20C03370B40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF2560-0349-4822-8E64-DCEAE09C7ECC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="박진영" sheetId="2" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="284">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -5104,6 +5104,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">sequence diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계, srs수정, class design 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>12</t>
     </r>
     <r>
@@ -5113,1285 +5128,1300 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
+      <t>월 7일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial data 재정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천로직기획</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 5일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수행계획서 작성 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 정리 시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 24일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key class design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백 받고 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 18일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key entity class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 11일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity class design &amp; table design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key entity class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence diagram 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Node JS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">node JS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS 최종 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 23일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 15일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 14일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 시간표 추천 Use Case Spec 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수업 시간표 추천 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 5일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 4일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Spec 중 개인 취향 부분 아이디어 구상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기능, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 28일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Node JS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재설정된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적 내용 생각</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 26일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 Target Application 아이디어 스케치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 23일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">새로운 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디어 구상</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 17일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 선정 및 계획서 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>작성자명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄희애</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀명: 2조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PSP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종결과물 시연 영상 촬영, 최종결과물 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기존 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능 재논의 &amp; 새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target Application Review를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 재논의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 리스트업</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Use Case Diagram 작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Use Case Diagram, Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 교수님 피드백 사항 점검 및 수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선정, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핵심로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 관련 구체화(시간표 구성 요건, 피드백로직)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data, Use Case Spec, DB 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등 각자 작업물 Review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 논의</t>
+    </r>
+  </si>
+  <si>
+    <t>개발 환경 세팅</t>
+  </si>
+  <si>
+    <t>최종 결과물을 위한 업무 분배</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업무 진행(각종 정보 입력 및 저장 구현, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">HTML/CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업, 추천 로직 구현, 문서 작성)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Case를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 Data Set 논의 및 Data 생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 8일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>월 9일</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">sequence diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계, srs수정, class design 수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 7일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>initial data 재정리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 6일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천로직기획</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 5일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수행계획서 작성 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 1일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요람 정리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 29일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요람 정리 시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 24일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Key class design </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피드백 받고 수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 18일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Key entity class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 11일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Entity class design &amp; table design </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정리</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 6일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Key entity class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 2일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence diagram 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 1일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Node JS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 29일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">node JS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 27일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRS 최종 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 23일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 15일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 14일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업 시간표 추천 Use Case Spec 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 6일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">수업 시간표 추천 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Use Case Spec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 5일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 4일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Case Spec 중 개인 취향 부분 아이디어 구상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 1일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기능, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Use Case Diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 28일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Node JS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 27일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">재설정된 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구체적 내용 생각</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 26일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target Application Use Case Diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 Target Application 아이디어 스케치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 23일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">새로운 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디어 구상</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 17일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주제 선정 및 계획서 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>작성자명</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엄희애</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀명: 2조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test Data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, SRS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 8일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PSP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통합</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천로직</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종결과물 시연 영상 촬영, 최종결과물 정리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기존 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능 재논의 &amp; 새로운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> Target Application 논의</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Target Application Review를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 바탕으로 재논의</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>새로운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> Target Application 리스트업</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Use Case Diagram 작성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>피드백을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 바탕으로 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재설정</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Target Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Use Case Diagram, Use Case Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 교수님 피드백 사항 점검 및 수정</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">User </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선정, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>핵심로직</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 관련 구체화(시간표 구성 요건, 피드백로직)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Initial Data, Use Case Spec, DB 설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 등 각자 작업물 Review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>추천로직</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 논의</t>
-    </r>
-  </si>
-  <si>
-    <t>개발 환경 세팅</t>
-  </si>
-  <si>
-    <t>최종 결과물을 위한 업무 분배</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 업무 진행(각종 정보 입력 및 저장 구현, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HTML/CSS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업, 추천 로직 구현, 문서 작성)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Test Case를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 위한 Data Set 논의 및 Data 생성</t>
-    </r>
+    <t>12월 9일</t>
+  </si>
+  <si>
+    <t>index, show, update page jquery 작업</t>
+  </si>
+  <si>
+    <t>footer, header jquery 작업, GUI Model 최종본 작성, 최종발표보고서 작성</t>
+  </si>
+  <si>
+    <t>12월 10일</t>
+  </si>
+  <si>
+    <t>위키 작성, table page css/jquery, 최종산출물 보완 작업</t>
   </si>
 </sst>
 </file>
@@ -6596,7 +6626,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -6751,6 +6781,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -6881,7 +6920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6933,7 +6972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7137,7 +7176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -7294,7 +7333,7 @@
         <v>75</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -7334,7 +7373,7 @@
         <v>75</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
@@ -7374,7 +7413,7 @@
         <v>180</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
@@ -7394,7 +7433,7 @@
         <v>200</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
@@ -7454,7 +7493,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16">
@@ -7474,7 +7513,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
@@ -7554,7 +7593,7 @@
         <v>120</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
@@ -7594,7 +7633,7 @@
         <v>150</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13">
@@ -7774,7 +7813,7 @@
         <v>120</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
@@ -7954,7 +7993,7 @@
         <v>150</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16">
@@ -8034,7 +8073,7 @@
         <v>75</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13">
@@ -8094,7 +8133,7 @@
         <v>75</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16">
@@ -8234,7 +8273,7 @@
         <v>240</v>
       </c>
       <c r="F57" s="73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13">
@@ -8334,7 +8373,7 @@
         <v>240</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16">
@@ -8474,7 +8513,7 @@
         <v>570</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16">
@@ -8494,7 +8533,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16">
@@ -8514,7 +8553,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13">
@@ -8534,7 +8573,7 @@
         <v>300</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8553,7 +8592,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -9331,7 +9370,7 @@
     </row>
     <row r="42" spans="1:6" s="28" customFormat="1" ht="13">
       <c r="A42" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" s="29">
         <v>0.61388888888888882</v>
@@ -9351,7 +9390,7 @@
     </row>
     <row r="43" spans="1:6" s="28" customFormat="1" ht="13">
       <c r="A43" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="29">
         <v>0.45833333333333331</v>
@@ -9371,7 +9410,7 @@
     </row>
     <row r="44" spans="1:6" s="28" customFormat="1" ht="13">
       <c r="A44" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B44" s="29">
         <v>0.8125</v>
@@ -9386,12 +9425,12 @@
         <v>150</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13">
       <c r="A45" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="29">
         <v>0.97361111111111109</v>
@@ -9406,7 +9445,7 @@
         <v>28</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9424,8 +9463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -9969,28 +10008,64 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="75">
+        <v>0</v>
+      </c>
+      <c r="C30" s="75">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D30" s="76">
+        <v>0</v>
+      </c>
+      <c r="E30" s="78">
+        <v>240</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="75">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C31" s="75">
+        <v>1</v>
+      </c>
+      <c r="D31" s="76">
+        <v>0</v>
+      </c>
+      <c r="E31" s="78">
+        <v>300</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="75">
+        <v>0</v>
+      </c>
+      <c r="C32" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="76">
+        <v>0</v>
+      </c>
+      <c r="E32" s="78">
+        <v>360</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="46"/>
@@ -10443,7 +10518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -11026,8 +11101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5"/>
@@ -11057,11 +11132,11 @@
     </row>
     <row r="3" spans="1:6" ht="11.9" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="28"/>
     </row>
@@ -11103,12 +11178,12 @@
         <v>100</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="29">
         <v>0.79166666666666663</v>
@@ -11123,12 +11198,12 @@
         <v>90</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="29">
         <v>0.83333333333333337</v>
@@ -11143,12 +11218,12 @@
         <v>60</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="29">
         <v>0.83333333333333337</v>
@@ -11163,12 +11238,12 @@
         <v>60</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" s="29">
         <v>0.75</v>
@@ -11183,12 +11258,12 @@
         <v>60</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="29">
         <v>0.83333333333333337</v>
@@ -11203,12 +11278,12 @@
         <v>180</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="29">
         <v>0.625</v>
@@ -11223,12 +11298,12 @@
         <v>180</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="6">
         <v>0.79166666666666663</v>
@@ -11243,12 +11318,12 @@
         <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="29">
         <v>0.75</v>
@@ -11263,12 +11338,12 @@
         <v>60</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="29">
         <v>0.70833333333333337</v>
@@ -11283,12 +11358,12 @@
         <v>60</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="29">
         <v>0.875</v>
@@ -11303,12 +11378,12 @@
         <v>100</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="29">
         <v>0.83333333333333337</v>
@@ -11323,12 +11398,12 @@
         <v>200</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="29">
         <v>0.75</v>
@@ -11343,12 +11418,12 @@
         <v>180</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14">
       <c r="A19" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="29">
         <v>0.75</v>
@@ -11363,12 +11438,12 @@
         <v>210</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="29">
         <v>0.5625</v>
@@ -11383,12 +11458,12 @@
         <v>210</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="29">
         <v>0.58333333333333337</v>
@@ -11403,12 +11478,12 @@
         <v>120</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="29">
         <v>0.79166666666666663</v>
@@ -11423,12 +11498,12 @@
         <v>90</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13">
       <c r="A23" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="29">
         <v>0.58333333333333337</v>
@@ -11443,12 +11518,12 @@
         <v>180</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="29">
         <v>0.83333333333333337</v>
@@ -11463,12 +11538,12 @@
         <v>90</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14">
       <c r="A25" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="29">
         <v>0.95833333333333337</v>
@@ -11483,12 +11558,12 @@
         <v>90</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14">
       <c r="A26" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="29">
         <v>0.79166666666666663</v>
@@ -11503,12 +11578,12 @@
         <v>120</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="29">
         <v>0.79166666666666663</v>
@@ -11523,12 +11598,12 @@
         <v>60</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="29">
         <v>0.625</v>
@@ -11543,12 +11618,12 @@
         <v>70</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" s="29">
         <v>0.45833333333333331</v>
@@ -11563,12 +11638,12 @@
         <v>60</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="29">
         <v>0.70833333333333337</v>
@@ -11583,12 +11658,12 @@
         <v>60</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="29">
         <v>0.625</v>
@@ -11603,12 +11678,12 @@
         <v>90</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="29">
         <v>0.54166666666666663</v>
@@ -11623,12 +11698,12 @@
         <v>180</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="29">
         <v>0.66666666666666663</v>
@@ -11643,12 +11718,12 @@
         <v>240</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="B34" s="29">
         <v>0.79166666666666663</v>
@@ -11667,12 +11742,24 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C35" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D35" s="31">
+        <v>60</v>
+      </c>
+      <c r="E35" s="32">
+        <v>480</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="14"/>
